--- a/teaching/traditional_assets/database/data/morocco/morocco_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/morocco/morocco_insurance_general.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.07500000000000001</v>
+        <v>0.0425</v>
       </c>
       <c r="E2">
-        <v>0.01735</v>
+        <v>-0.0458</v>
       </c>
       <c r="G2">
-        <v>0.1030275017333025</v>
+        <v>0.139544977582753</v>
       </c>
       <c r="H2">
-        <v>0.1030275017333025</v>
+        <v>0.139544977582753</v>
       </c>
       <c r="I2">
-        <v>0.09004853247053385</v>
+        <v>0.04062291328818086</v>
       </c>
       <c r="J2">
-        <v>0.06766812930450003</v>
+        <v>0.0296642755187035</v>
       </c>
       <c r="K2">
-        <v>136.95</v>
+        <v>59.66</v>
       </c>
       <c r="L2">
-        <v>0.06330020799630229</v>
+        <v>0.02845559477248879</v>
       </c>
       <c r="M2">
-        <v>61.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="N2">
-        <v>0.02300971605031257</v>
+        <v>0.02825232246616332</v>
       </c>
       <c r="O2">
-        <v>0.4461482292807594</v>
+        <v>1.361045926919209</v>
       </c>
       <c r="P2">
-        <v>61.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="Q2">
-        <v>0.02300971605031257</v>
+        <v>0.02825232246616332</v>
       </c>
       <c r="R2">
-        <v>0.4461482292807594</v>
+        <v>1.361045926919209</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>59.361</v>
+        <v>61.125</v>
       </c>
       <c r="V2">
-        <v>0.02235482413195752</v>
+        <v>0.0212675272259142</v>
       </c>
       <c r="W2">
-        <v>0.1366950182260024</v>
+        <v>0.2372372372372372</v>
       </c>
       <c r="X2">
-        <v>0.06175217722940696</v>
+        <v>0.05774411899772042</v>
       </c>
       <c r="Y2">
-        <v>0.07494284099659548</v>
+        <v>0.1794931182395168</v>
       </c>
       <c r="Z2">
-        <v>1.729589287498751</v>
+        <v>1.884016947705635</v>
       </c>
       <c r="AA2">
-        <v>0.1295423141257181</v>
+        <v>0.01081730769230769</v>
       </c>
       <c r="AB2">
-        <v>0.06044261578620874</v>
+        <v>0.05666118767301267</v>
       </c>
       <c r="AC2">
-        <v>0.06909969833950941</v>
+        <v>-0.04584387998070498</v>
       </c>
       <c r="AD2">
-        <v>95.675</v>
+        <v>94.48399999999999</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>95.675</v>
+        <v>94.48399999999999</v>
       </c>
       <c r="AG2">
-        <v>36.31399999999999</v>
+        <v>33.35899999999999</v>
       </c>
       <c r="AH2">
-        <v>0.03477731432258298</v>
+        <v>0.03182796915970712</v>
       </c>
       <c r="AI2">
-        <v>0.07172495998620601</v>
+        <v>0.07241129838200401</v>
       </c>
       <c r="AJ2">
-        <v>0.01349103210816602</v>
+        <v>0.01147359257688586</v>
       </c>
       <c r="AK2">
-        <v>0.02849153507815282</v>
+        <v>0.02682240638611111</v>
       </c>
       <c r="AL2">
-        <v>17.069</v>
+        <v>0.547</v>
       </c>
       <c r="AM2">
-        <v>16.849</v>
+        <v>0.294</v>
       </c>
       <c r="AN2">
-        <v>0.4069371783420526</v>
+        <v>0.3964419082784374</v>
       </c>
       <c r="AO2">
-        <v>11.41367391176987</v>
+        <v>155.7038391224863</v>
       </c>
       <c r="AP2">
-        <v>0.154455361320233</v>
+        <v>0.1399697897872697</v>
       </c>
       <c r="AQ2">
-        <v>11.56270401804261</v>
+        <v>289.6938775510204</v>
       </c>
     </row>
     <row r="3">
@@ -724,23 +724,29 @@
           <t>Insurance (General)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.0262</v>
+      </c>
+      <c r="E3">
+        <v>-0.0458</v>
+      </c>
       <c r="G3">
-        <v>0.4201005025125628</v>
+        <v>0.4346534653465347</v>
       </c>
       <c r="H3">
-        <v>0.4201005025125628</v>
+        <v>0.4346534653465347</v>
       </c>
       <c r="I3">
-        <v>0.4045226130653267</v>
+        <v>0.4222772277227723</v>
       </c>
       <c r="J3">
-        <v>0.2893932794632932</v>
+        <v>0.2913100875304921</v>
       </c>
       <c r="K3">
-        <v>5.53</v>
+        <v>4.76</v>
       </c>
       <c r="L3">
-        <v>0.2778894472361809</v>
+        <v>0.2356435643564356</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -764,73 +770,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>4.21</v>
+        <v>1.94</v>
       </c>
       <c r="V3">
-        <v>0.03927238805970149</v>
+        <v>0.0154828411811652</v>
       </c>
       <c r="W3">
-        <v>1.088582677165354</v>
+        <v>1.919354838709677</v>
       </c>
       <c r="X3">
-        <v>0.06336273954045037</v>
+        <v>0.06000091827922616</v>
       </c>
       <c r="Y3">
-        <v>1.025219937624904</v>
+        <v>1.859353920430451</v>
       </c>
       <c r="Z3">
-        <v>8.257261410788384</v>
+        <v>4.225941422594142</v>
       </c>
       <c r="AA3">
-        <v>2.38959595905375</v>
+        <v>1.231059365714632</v>
       </c>
       <c r="AB3">
-        <v>0.06110923045344566</v>
+        <v>0.05693569586009507</v>
       </c>
       <c r="AC3">
-        <v>2.328486728600304</v>
+        <v>1.174123669854537</v>
       </c>
       <c r="AD3">
-        <v>11.8</v>
+        <v>13.5</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>11.8</v>
+        <v>13.5</v>
       </c>
       <c r="AG3">
-        <v>7.590000000000001</v>
+        <v>11.56</v>
       </c>
       <c r="AH3">
-        <v>0.09915966386554623</v>
+        <v>0.0972622478386167</v>
       </c>
       <c r="AI3">
-        <v>0.8269096005606167</v>
+        <v>0.8743523316062176</v>
       </c>
       <c r="AJ3">
-        <v>0.06612074222493249</v>
+        <v>0.08446587753909106</v>
       </c>
       <c r="AK3">
-        <v>0.7544731610337972</v>
+        <v>0.8562962962962963</v>
       </c>
       <c r="AL3">
-        <v>0.28</v>
+        <v>0.547</v>
       </c>
       <c r="AM3">
-        <v>0.28</v>
+        <v>0.547</v>
       </c>
       <c r="AN3">
-        <v>1.396449704142012</v>
+        <v>1.527149321266968</v>
       </c>
       <c r="AO3">
-        <v>28.75</v>
+        <v>15.59414990859232</v>
       </c>
       <c r="AP3">
-        <v>0.8982248520710061</v>
+        <v>1.307692307692308</v>
       </c>
       <c r="AQ3">
-        <v>28.75</v>
+        <v>15.59414990859232</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +847,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agma S.A. (CBSE:AGM)</t>
+          <t>AtlantaSanad Société Anonyme (CBSE:ATL)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,115 +856,115 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0215</v>
+        <v>0.09119999999999999</v>
       </c>
       <c r="E4">
-        <v>0.0245</v>
+        <v>0.157</v>
       </c>
       <c r="G4">
-        <v>0.4954545454545455</v>
+        <v>0.1379690949227373</v>
       </c>
       <c r="H4">
-        <v>0.4954545454545455</v>
+        <v>0.1379690949227373</v>
       </c>
       <c r="I4">
-        <v>0.5280303030303031</v>
+        <v>0.1035688005886681</v>
       </c>
       <c r="J4">
-        <v>0.3648468490573755</v>
+        <v>0.07604029039502586</v>
       </c>
       <c r="K4">
-        <v>5.12</v>
+        <v>39.5</v>
       </c>
       <c r="L4">
-        <v>0.3878787878787879</v>
+        <v>0.07266372332597498</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>20.5</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.03699693196173975</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0.5189873417721519</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>20.5</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.03699693196173975</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0.5189873417721519</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>0.271</v>
+        <v>5.44</v>
       </c>
       <c r="V4">
-        <v>0.003950437317784257</v>
+        <v>0.009817722432773868</v>
       </c>
       <c r="W4">
-        <v>0.6564102564102564</v>
+        <v>0.2372372372372372</v>
       </c>
       <c r="X4">
-        <v>0.06175217722940696</v>
+        <v>0.05989516561036436</v>
       </c>
       <c r="Y4">
-        <v>0.5946580791808495</v>
+        <v>0.1773420716268729</v>
       </c>
       <c r="Z4">
-        <v>4.193138500635325</v>
+        <v>2.728641702640297</v>
       </c>
       <c r="AA4">
-        <v>1.529853369617966</v>
+        <v>0.207486707452746</v>
       </c>
       <c r="AB4">
-        <v>0.06034383274145452</v>
+        <v>0.05692360186040313</v>
       </c>
       <c r="AC4">
-        <v>1.469509536876511</v>
+        <v>0.1505631055923428</v>
       </c>
       <c r="AD4">
-        <v>3.65</v>
+        <v>57.9</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>3.65</v>
+        <v>57.9</v>
       </c>
       <c r="AG4">
-        <v>3.379</v>
+        <v>52.46</v>
       </c>
       <c r="AH4">
-        <v>0.05051903114186851</v>
+        <v>0.0946078431372549</v>
       </c>
       <c r="AI4">
-        <v>0.3036605657237937</v>
+        <v>0.239454094292804</v>
       </c>
       <c r="AJ4">
-        <v>0.04694424762778032</v>
+        <v>0.08648773410709575</v>
       </c>
       <c r="AK4">
-        <v>0.287598944591029</v>
+        <v>0.2219495684548993</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>-0.22</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.5097765363128491</v>
+        <v>0.7470967741935484</v>
       </c>
       <c r="AP4">
-        <v>0.471927374301676</v>
-      </c>
-      <c r="AQ4">
-        <v>-31.68181818181818</v>
+        <v>0.6769032258064516</v>
       </c>
     </row>
     <row r="5">
@@ -969,7 +975,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Compagnie d'Assurances et de Réassurance ATLANTA (CBSE:ATL)</t>
+          <t>SAHAM Assurance S.A. (CBSE:SAH)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -978,100 +984,103 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.107</v>
+        <v>0.0425</v>
       </c>
       <c r="E5">
-        <v>0.12</v>
+        <v>-0.278</v>
       </c>
       <c r="G5">
-        <v>0.06535815459328206</v>
+        <v>0.1640899508081518</v>
       </c>
       <c r="H5">
-        <v>0.06535815459328206</v>
+        <v>0.1640899508081518</v>
       </c>
       <c r="I5">
-        <v>0.06151355726426548</v>
+        <v>0.006324666198172874</v>
       </c>
       <c r="J5">
-        <v>0.04873433233964695</v>
+        <v>0.006324666198172874</v>
       </c>
       <c r="K5">
-        <v>22.5</v>
+        <v>7.59</v>
       </c>
       <c r="L5">
-        <v>0.04552812626467018</v>
+        <v>0.01333450456781447</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>12.7</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>0.02150355570606163</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>1.673254281949934</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>12.7</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>0.02150355570606163</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>1.673254281949934</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
       <c r="U5">
-        <v>8.880000000000001</v>
+        <v>19.5</v>
       </c>
       <c r="V5">
-        <v>0.01910910264686895</v>
+        <v>0.03301727057229936</v>
       </c>
       <c r="W5">
-        <v>0.1366950182260024</v>
+        <v>0.01662650602409638</v>
       </c>
       <c r="X5">
-        <v>0.06343272422341782</v>
+        <v>0.05774411899772042</v>
       </c>
       <c r="Y5">
-        <v>0.07326229400258462</v>
+        <v>-0.04111761297362403</v>
       </c>
       <c r="Z5">
-        <v>2.658132530120482</v>
+        <v>1.710336538461538</v>
       </c>
       <c r="AA5">
-        <v>0.1295423141257181</v>
+        <v>0.01081730769230769</v>
       </c>
       <c r="AB5">
-        <v>0.06044261578620874</v>
+        <v>0.05666118767301267</v>
       </c>
       <c r="AC5">
-        <v>0.06909969833950941</v>
+        <v>-0.04584387998070498</v>
       </c>
       <c r="AD5">
-        <v>52.3</v>
+        <v>22.7</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>52.3</v>
+        <v>22.7</v>
       </c>
       <c r="AG5">
-        <v>43.41999999999999</v>
+        <v>3.199999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.1011605415860735</v>
+        <v>0.03701288113484428</v>
       </c>
       <c r="AI5">
-        <v>0.2383773928896992</v>
+        <v>0.04713455149501661</v>
       </c>
       <c r="AJ5">
-        <v>0.08545225537274659</v>
+        <v>0.005389019872010776</v>
       </c>
       <c r="AK5">
-        <v>0.2062511875356261</v>
+        <v>0.006924908028565244</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1080,10 +1089,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>1.224824355971897</v>
+        <v>0.6037234042553191</v>
       </c>
       <c r="AP5">
-        <v>1.016861826697892</v>
+        <v>0.08510638297872339</v>
       </c>
     </row>
     <row r="6">
@@ -1103,46 +1112,46 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.07150000000000001</v>
+        <v>0.0513</v>
       </c>
       <c r="E6">
-        <v>-0.0499</v>
+        <v>-0.4970000000000001</v>
       </c>
       <c r="G6">
-        <v>0.09042389407779944</v>
+        <v>0.1137655230477794</v>
       </c>
       <c r="H6">
-        <v>0.09042389407779944</v>
+        <v>0.1137655230477794</v>
       </c>
       <c r="I6">
-        <v>0.08642102021964489</v>
+        <v>0.01015575668280362</v>
       </c>
       <c r="J6">
-        <v>0.06729675139113495</v>
+        <v>0.005483712672780902</v>
       </c>
       <c r="K6">
-        <v>65.09999999999999</v>
+        <v>2.78</v>
       </c>
       <c r="L6">
-        <v>0.06681720209381094</v>
+        <v>0.002925699852662597</v>
       </c>
       <c r="M6">
-        <v>43.9</v>
+        <v>43.3</v>
       </c>
       <c r="N6">
-        <v>0.03073799187788825</v>
+        <v>0.02847560173615678</v>
       </c>
       <c r="O6">
-        <v>0.674347158218126</v>
+        <v>15.57553956834532</v>
       </c>
       <c r="P6">
-        <v>43.9</v>
+        <v>43.3</v>
       </c>
       <c r="Q6">
-        <v>0.03073799187788825</v>
+        <v>0.02847560173615678</v>
       </c>
       <c r="R6">
-        <v>0.674347158218126</v>
+        <v>15.57553956834532</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1151,73 +1160,70 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>22.6</v>
+        <v>33.3</v>
       </c>
       <c r="V6">
-        <v>0.01582411426971013</v>
+        <v>0.02189925029593581</v>
       </c>
       <c r="W6">
-        <v>0.1108651226158038</v>
+        <v>0.004604173567406426</v>
       </c>
       <c r="X6">
-        <v>0.06025173336879094</v>
+        <v>0.05650077273071079</v>
       </c>
       <c r="Y6">
-        <v>0.05061338924701285</v>
+        <v>-0.05189659916330436</v>
       </c>
       <c r="Z6">
-        <v>1.732406111696897</v>
+        <v>1.633979622544173</v>
       </c>
       <c r="AA6">
-        <v>0.1165853034073488</v>
+        <v>0.008960274763211235</v>
       </c>
       <c r="AB6">
-        <v>0.06024573239259903</v>
+        <v>0.05649369986558906</v>
       </c>
       <c r="AC6">
-        <v>0.0563395710147498</v>
+        <v>-0.04753342510237783</v>
       </c>
       <c r="AD6">
-        <v>0.325</v>
+        <v>0.384</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.325</v>
+        <v>0.384</v>
       </c>
       <c r="AG6">
-        <v>-22.275</v>
+        <v>-32.916</v>
       </c>
       <c r="AH6">
-        <v>0.0002275073939903047</v>
+        <v>0.0002524681390468276</v>
       </c>
       <c r="AI6">
-        <v>0.0005379681357334989</v>
+        <v>0.0006911646123718465</v>
       </c>
       <c r="AJ6">
-        <v>-0.01584366164624713</v>
+        <v>-0.02212566647218092</v>
       </c>
       <c r="AK6">
-        <v>-0.0383044581058424</v>
+        <v>-0.0630231827894402</v>
       </c>
       <c r="AL6">
-        <v>0.289</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.289</v>
+        <v>-0.019</v>
       </c>
       <c r="AN6">
-        <v>0.003237051792828685</v>
-      </c>
-      <c r="AO6">
-        <v>291.3494809688582</v>
+        <v>0.003585434173669468</v>
       </c>
       <c r="AP6">
-        <v>-0.2218625498007968</v>
+        <v>-0.3073389355742297</v>
       </c>
       <c r="AQ6">
-        <v>291.3494809688582</v>
+        <v>-507.8947368421053</v>
       </c>
     </row>
     <row r="7">
@@ -1228,7 +1234,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAHAM Assurance S.A. (CBSE:SAH)</t>
+          <t>Agma S.A. (CBSE:AGM)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1237,46 +1243,46 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0785</v>
+        <v>0.0252</v>
       </c>
       <c r="E7">
-        <v>0.0102</v>
+        <v>0.0134</v>
       </c>
       <c r="G7">
-        <v>0.1323462758724883</v>
+        <v>0.5440298507462686</v>
       </c>
       <c r="H7">
-        <v>0.1323462758724883</v>
+        <v>0.5440298507462686</v>
       </c>
       <c r="I7">
-        <v>0.09850430578637256</v>
+        <v>0.5291044776119402</v>
       </c>
       <c r="J7">
-        <v>0.0768333585133706</v>
+        <v>0.3635786232770573</v>
       </c>
       <c r="K7">
-        <v>38.7</v>
+        <v>5.03</v>
       </c>
       <c r="L7">
-        <v>0.05846804653270887</v>
+        <v>0.3753731343283582</v>
       </c>
       <c r="M7">
-        <v>17.2</v>
+        <v>4.7</v>
       </c>
       <c r="N7">
-        <v>0.02931651610703937</v>
+        <v>0.0562874251497006</v>
       </c>
       <c r="O7">
-        <v>0.4444444444444444</v>
+        <v>0.9343936381709741</v>
       </c>
       <c r="P7">
-        <v>17.2</v>
+        <v>4.7</v>
       </c>
       <c r="Q7">
-        <v>0.02931651610703937</v>
+        <v>0.0562874251497006</v>
       </c>
       <c r="R7">
-        <v>0.4444444444444444</v>
+        <v>0.9343936381709741</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1285,73 +1291,70 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>23.4</v>
+        <v>0.945</v>
       </c>
       <c r="V7">
-        <v>0.03988409749446054</v>
+        <v>0.01131736526946108</v>
       </c>
       <c r="W7">
-        <v>0.08586642999778124</v>
+        <v>0.5085945399393327</v>
       </c>
       <c r="X7">
-        <v>0.06157759894861828</v>
+        <v>0.05649254957015962</v>
       </c>
       <c r="Y7">
-        <v>0.02428883104916296</v>
+        <v>0.4521019903691731</v>
       </c>
       <c r="Z7">
-        <v>1.331790744466801</v>
+        <v>-2.4408014571949</v>
       </c>
       <c r="AA7">
-        <v>0.1023259557344064</v>
+        <v>-0.8874232334995572</v>
       </c>
       <c r="AB7">
-        <v>0.06063674017076028</v>
+        <v>0.05649254957015962</v>
       </c>
       <c r="AC7">
-        <v>0.04168921556364615</v>
+        <v>-0.9439157830697168</v>
       </c>
       <c r="AD7">
-        <v>27.6</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>27.6</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>4.200000000000003</v>
+        <v>-0.945</v>
       </c>
       <c r="AH7">
-        <v>0.04492918769330945</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.05701301384011568</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.007107801658487057</v>
+        <v>-0.0114469141784265</v>
       </c>
       <c r="AK7">
-        <v>0.009116561753852838</v>
+        <v>-0.09994711792702274</v>
       </c>
       <c r="AL7">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>16.5</v>
+        <v>-0.234</v>
       </c>
       <c r="AN7">
-        <v>0.3612565445026178</v>
-      </c>
-      <c r="AO7">
-        <v>3.951515151515152</v>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.05497382198952883</v>
+        <v>-0.1296296296296296</v>
       </c>
       <c r="AQ7">
-        <v>3.951515151515152</v>
+        <v>-30.2991452991453</v>
       </c>
     </row>
   </sheetData>
